--- a/Data/Sampling_input_application2.xlsx
+++ b/Data/Sampling_input_application2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t xml:space="preserve">sim_order</t>
   </si>
@@ -43,19 +43,22 @@
     <t xml:space="preserve">use_logic</t>
   </si>
   <si>
-    <t xml:space="preserve">simple random sampling</t>
+    <t xml:space="preserve">active sampling</t>
   </si>
   <si>
     <t xml:space="preserve">NA</t>
   </si>
   <si>
-    <t xml:space="preserve">importance sampling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">density sampling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">severity sampling</t>
+    <t xml:space="preserve">impact speed reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ prediction uncertainty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">injury risk reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crash avoidance</t>
   </si>
 </sst>
 </file>
@@ -161,10 +164,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -201,7 +204,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -211,115 +214,66 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="n">
-        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="n">
-        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -342,6 +296,10 @@
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
